--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang2/02.TraBH/TBH_AnhTuanNB_130225.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang2/02.TraBH/TBH_AnhTuanNB_130225.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Hà Nội, ngày 13 tháng 02 năm 2025</t>
+  </si>
+  <si>
+    <t>VNSH02</t>
   </si>
 </sst>
 </file>
@@ -592,6 +595,45 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -623,45 +665,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1024,7 +1027,7 @@
   <dimension ref="A1:U73"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1044,77 +1047,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="40" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="43" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="46" t="s">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="61"/>
     </row>
     <row r="5" spans="1:21" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="35"/>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
@@ -1132,12 +1135,12 @@
       <c r="U6" s="33"/>
     </row>
     <row r="7" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="35"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
@@ -1155,12 +1158,12 @@
       <c r="U7" s="33"/>
     </row>
     <row r="8" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="35"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -1178,12 +1181,12 @@
       <c r="U8" s="33"/>
     </row>
     <row r="9" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
       <c r="E9" s="36"/>
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
@@ -1244,7 +1247,9 @@
       <c r="A11" s="24">
         <v>1</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="C11" s="37" t="s">
         <v>27</v>
       </c>
@@ -1276,7 +1281,9 @@
       <c r="A12" s="24">
         <v>2</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="C12" s="37" t="s">
         <v>30</v>
       </c>
@@ -1308,7 +1315,9 @@
       <c r="A13" s="24">
         <v>3</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="C13" s="37" t="s">
         <v>31</v>
       </c>
@@ -1340,7 +1349,9 @@
       <c r="A14" s="24">
         <v>4</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="C14" s="37" t="s">
         <v>32</v>
       </c>
@@ -1372,7 +1383,9 @@
       <c r="A15" s="24">
         <v>5</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="C15" s="37" t="s">
         <v>33</v>
       </c>
@@ -1404,7 +1417,9 @@
       <c r="A16" s="24">
         <v>6</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="C16" s="37" t="s">
         <v>36</v>
       </c>
@@ -1438,7 +1453,9 @@
       <c r="A17" s="24">
         <v>7</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="C17" s="37" t="s">
         <v>38</v>
       </c>
@@ -1470,7 +1487,9 @@
       <c r="A18" s="24">
         <v>8</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="C18" s="37" t="s">
         <v>41</v>
       </c>
@@ -1502,7 +1521,9 @@
       <c r="A19" s="24">
         <v>9</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="C19" s="37" t="s">
         <v>42</v>
       </c>
@@ -1534,7 +1555,9 @@
       <c r="A20" s="24">
         <v>10</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="24" t="s">
+        <v>58</v>
+      </c>
       <c r="C20" s="24" t="s">
         <v>44</v>
       </c>
@@ -1639,17 +1662,17 @@
       <c r="U22" s="33"/>
     </row>
     <row r="23" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="61">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="38">
         <v>120000</v>
       </c>
       <c r="J23" s="7"/>
@@ -1685,26 +1708,26 @@
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="51" t="s">
+      <c r="G25" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
     </row>
     <row r="26" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
     </row>
     <row r="27" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
@@ -1751,19 +1774,19 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
     </row>
     <row r="32" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -1777,12 +1800,17 @@
       <c r="I32" s="23"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
     </row>
     <row r="73" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="G25:I25"/>
     <mergeCell ref="B34:C34"/>
@@ -1795,11 +1823,6 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1.5" bottom="1.5" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang2/02.TraBH/TBH_AnhTuanNB_130225.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang2/02.TraBH/TBH_AnhTuanNB_130225.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$33</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -199,10 +199,13 @@
     <t>Tổng</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 13 tháng 02 năm 2025</t>
-  </si>
-  <si>
     <t>VNSH02</t>
+  </si>
+  <si>
+    <t>WP22050219S02119 / 0032003C88</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 24 tháng 02 năm 2025</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1027,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U73"/>
+  <dimension ref="A1:U74"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>27</v>
@@ -1282,7 +1285,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>30</v>
@@ -1316,7 +1319,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>31</v>
@@ -1350,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>32</v>
@@ -1384,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="37" t="s">
         <v>33</v>
@@ -1418,7 +1421,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="37" t="s">
         <v>36</v>
@@ -1454,21 +1457,19 @@
         <v>7</v>
       </c>
       <c r="B17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="37" t="s">
-        <v>38</v>
-      </c>
       <c r="D17" s="37"/>
-      <c r="E17" s="37" t="s">
-        <v>15</v>
-      </c>
+      <c r="E17" s="37"/>
       <c r="F17" s="37"/>
       <c r="G17" s="24" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="7"/>
@@ -1488,10 +1489,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="37" t="s">
@@ -1499,10 +1500,10 @@
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="24" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H18" s="24" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="7"/>
@@ -1522,10 +1523,10 @@
         <v>9</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="37" t="s">
@@ -1536,7 +1537,7 @@
         <v>28</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="7"/>
@@ -1556,23 +1557,21 @@
         <v>10</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>42</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>55</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F20" s="37"/>
       <c r="G20" s="24" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I20" s="25"/>
       <c r="J20" s="7"/>
@@ -1592,22 +1591,20 @@
         <v>11</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="34">
-        <v>2408211338004</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>49</v>
+      <c r="F21" s="37" t="s">
+        <v>55</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H21" s="24" t="s">
         <v>46</v>
@@ -1632,18 +1629,20 @@
       <c r="B22" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="24"/>
+      <c r="C22" s="34">
+        <v>2408211338004</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="E22" s="24" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>46</v>
@@ -1661,20 +1660,30 @@
       <c r="T22" s="33"/>
       <c r="U22" s="33"/>
     </row>
-    <row r="23" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="38">
-        <v>120000</v>
-      </c>
+    <row r="23" spans="1:21" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>13</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="25"/>
       <c r="J23" s="7"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33"/>
@@ -1688,57 +1697,72 @@
       <c r="U23" s="33"/>
     </row>
     <row r="24" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="A24" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="38">
+        <v>120000</v>
+      </c>
       <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14" t="s">
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+    </row>
+    <row r="25" spans="1:21" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-    </row>
-    <row r="26" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="44" t="s">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-    </row>
-    <row r="27" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="9"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
     </row>
     <row r="28" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
@@ -1763,47 +1787,58 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="43" t="s">
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-    </row>
-    <row r="32" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="23"/>
-    </row>
-    <row r="34" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-    </row>
-    <row r="73" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+    </row>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="35" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+    </row>
+    <row r="74" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:C4"/>
@@ -1812,17 +1847,17 @@
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A31:E31"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G32:I32"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A24:H24"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1.5" bottom="1.5" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
